--- a/data-raw/geo_fco2.xlsx
+++ b/data-raw/geo_fco2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\curso-gp-02-geoestatistica\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F3088-C64E-48DB-B595-FE1C68FF18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E328D8-80EF-46F4-99F6-4EBF759E76AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3948,7 +3948,7 @@
         <v>45</v>
       </c>
       <c r="I101">
-        <v>52</v>
+        <v>5.2</v>
       </c>
       <c r="J101">
         <v>9</v>
